--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--ART-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--ART-.xlsx
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
   </si>
   <si>
     <t>TC3</t>
@@ -143,7 +143,7 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Niveis das Competencias</t>
